--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbell\Documents\Benjamin\Perso\Site internet\mywebsite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0D053A-2A9D-4369-8DFC-D1E3A5BED8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782E7BC-ED0E-4852-A9F2-21169FFEA11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="research jobs" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="icons" sheetId="5" r:id="rId7"/>
     <sheet name="teaching &amp; mentoring" sheetId="10" r:id="rId8"/>
     <sheet name="sport" sheetId="7" r:id="rId9"/>
-    <sheet name="model" sheetId="1" r:id="rId10"/>
+    <sheet name="sport historic" sheetId="14" r:id="rId10"/>
+    <sheet name="model" sheetId="1" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'educational background'!$A$1:$F$5</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="252">
   <si>
     <t>proj-fuv</t>
   </si>
@@ -752,6 +753,54 @@
   </si>
   <si>
     <t>pub_list/Bellieretal2024-STOTEN_preprint.pdf</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>VC Luçonnais</t>
+  </si>
+  <si>
+    <t>Amicale Cycliste d'Andilly et Serigny</t>
+  </si>
+  <si>
+    <t>VC Lucéen</t>
+  </si>
+  <si>
+    <t>Angers Cyclisme</t>
+  </si>
+  <si>
+    <t>UC Nantes Atlantique</t>
+  </si>
+  <si>
+    <t>VC Château Gontier</t>
+  </si>
+  <si>
+    <t>Union Cycliste SUD 53</t>
+  </si>
+  <si>
+    <t>https://www.veloceclub-lucon.fr/</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>https://www.andillylesmarais.fr/acas/</t>
+  </si>
+  <si>
+    <t>https://veloclubluceen.clubeo.com/</t>
+  </si>
+  <si>
+    <t>https://www.angersmetropolecyclisme49.fr/</t>
+  </si>
+  <si>
+    <t>https://www.ucna.fr/</t>
+  </si>
+  <si>
+    <t>https://veloce-club-chateau-gontier.jimdofree.com/</t>
+  </si>
+  <si>
+    <t>https://www.cosse-le-vivien.fr/mairie-cosse/tellement-locale/culture/annuaire-des-associations/uc-sud-53</t>
   </si>
 </sst>
 </file>
@@ -821,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,6 +885,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,23 +1176,23 @@
       <selection activeCell="D6" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="49.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -1175,7 +1227,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1210,7 +1262,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1245,7 +1297,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1280,7 +1332,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1315,7 +1367,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1362,6 +1414,204 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D94C5C4-0F1A-491C-AF3B-BA2C570A396D}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="3"/>
+    <col min="3" max="3" width="108.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2024</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1369,12 +1619,12 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1388,18 +1638,18 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>148</v>
       </c>
@@ -1419,7 +1669,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1439,7 +1689,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1459,7 +1709,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1479,7 +1729,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1517,17 +1767,17 @@
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -1544,7 +1794,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1561,7 +1811,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1596,20 +1846,20 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="72" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
@@ -1635,7 +1885,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
@@ -1661,7 +1911,7 @@
         <v>-0.69837400000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>78</v>
       </c>
@@ -1687,7 +1937,7 @@
         <v>-0.698743</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>78</v>
       </c>
@@ -1713,7 +1963,7 @@
         <v>-0.56464499999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
@@ -1739,7 +1989,7 @@
         <v>-0.60017500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
@@ -1765,7 +2015,7 @@
         <v>-1.158282</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>102</v>
       </c>
@@ -1791,7 +2041,7 @@
         <v>-84.049373098106301</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>78</v>
       </c>
@@ -1817,7 +2067,7 @@
         <v>-0.69649112690117299</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>78</v>
       </c>
@@ -1843,7 +2093,7 @@
         <v>-0.69649112690117299</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>78</v>
       </c>
@@ -1869,7 +2119,7 @@
         <v>-1.154782</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
@@ -1909,20 +2159,20 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60" style="4" customWidth="1"/>
-    <col min="5" max="5" width="59.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="40.5703125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="5" max="5" width="59.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="40.5546875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>148</v>
       </c>
@@ -1948,7 +2198,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1974,7 +2224,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2000,7 +2250,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2026,7 +2276,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2052,7 +2302,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2078,39 +2328,39 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:H6" xr:uid="{240D3340-9201-4D6C-8A54-3C5CAB7C72B0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2121,29 +2371,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEFC990-8FA7-4BFB-983A-A7DA2ADA77BF}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="L5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="173.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="13.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="173.88671875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="28.109375" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>148</v>
       </c>
@@ -2184,7 +2434,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2225,7 +2475,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="189" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2266,7 +2516,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="234" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2307,7 +2557,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2348,7 +2598,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2389,7 +2639,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="126" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2430,7 +2680,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="156" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2471,7 +2721,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="78" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2512,27 +2762,27 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:M8" xr:uid="{9DEFC990-8FA7-4BFB-983A-A7DA2ADA77BF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M9">
@@ -2551,14 +2801,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="41" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
@@ -2566,7 +2816,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2574,7 +2824,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2582,7 +2832,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2590,7 +2840,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -2598,7 +2848,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -2620,22 +2870,22 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="39.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -2667,7 +2917,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2699,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2731,7 +2981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2763,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2809,15 +3059,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -2831,7 +3081,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -2845,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
@@ -2859,7 +3109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbell\Documents\Benjamin\Perso\Site internet\mywebsite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782E7BC-ED0E-4852-A9F2-21169FFEA11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BD1CC1-879E-43C3-B010-A393911950FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="research jobs" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'educational background'!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">icons!$A$1:$B$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">projects!$A$1:$H$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'publications &amp; communications'!$A$1:$M$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'publications &amp; communications'!$A$1:$L$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'research jobs'!$A$1:$K$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">summary!$A$1:$H$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'teaching &amp; mentoring'!$A$1:$J$5</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="251">
   <si>
     <t>proj-fuv</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.softx.2025.102061</t>
-  </si>
-  <si>
-    <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=5003828</t>
   </si>
   <si>
     <t>In the 21st century, in the context of an environmental crisis, chemical pollution has become a major global concern. In addition to chemical analysis, many bioassays have been developed and have proved to be interesting tools for considerably improve our understanding of the effects of human activities on species and ecosystems. Compared with animal or plant bioassays, bacterial bioassays based on bioluminescence inhibition have the advantage of being relatively economical and reproducible. This toxicity test uses the bioluminescent metabolic response of bacteria exposed for a short time to a solution of interest in the aim of assessing and quantifying its toxicity. Although routine tools are available to pre-process the data obtained, to our knowledge no flexible research tool is available for the data analysis following these tests, which could limit the access to the results for novices or experienced people unfamiliar with data processing software. To overcome this lack of tools for this bioassay, an R-Shiny package is proposed to generalise data analysis following a toxicity test based on bacterial bioluminescence inhibition. The traditional paperbased working environment is reproduced digitally in this package, which ultimately facilitates data entry and cleaning, makes the creation of relevant dynamic graphs, and simplifies access to toxicity data (e.g. dose-response curve and median effective concentration, i.e. EC50). The aim of this tool is to provide the target community with a high-performance tool that can be used to obtain toxicity test results based on the inhibition of bacterial bioluminescence.</t>
@@ -1176,230 +1173,230 @@
       <selection activeCell="D6" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="3"/>
+    <col min="5" max="5" width="49.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1417,193 +1414,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D94C5C4-0F1A-491C-AF3B-BA2C570A396D}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="3"/>
-    <col min="3" max="3" width="108.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="48.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="108.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="B2" s="3">
         <v>2025</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="3">
         <v>2024</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="3">
         <v>2023</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" s="3">
         <v>2022</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" s="3">
         <v>2021</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="3">
         <v>2020</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="3">
         <v>2019</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" s="3">
         <v>2018</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" s="3">
         <v>2017</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B11" s="3">
         <v>2016</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" s="3">
         <v>2015</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="3">
         <v>2014</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="3">
         <v>2013</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B15" s="3">
         <v>2012</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B16" s="3">
         <v>2011</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1619,12 +1616,12 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1638,115 +1635,115 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="33.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="4"/>
+    <col min="4" max="4" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D2" s="4">
         <v>2018</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1767,65 +1764,65 @@
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="3"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1846,63 +1843,63 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="72" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="G2" s="3">
         <v>47.835979999999999</v>
@@ -1911,24 +1908,24 @@
         <v>-0.69837400000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="G3" s="3">
         <v>47.828046999999998</v>
@@ -1937,24 +1934,24 @@
         <v>-0.698743</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G4" s="3">
         <v>48.748590999999998</v>
@@ -1963,24 +1960,24 @@
         <v>-0.56464499999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="G5" s="3">
         <v>47.480553999999998</v>
@@ -1989,24 +1986,24 @@
         <v>-0.60017500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="G6" s="3">
         <v>46.146113999999997</v>
@@ -2015,24 +2012,24 @@
         <v>-1.158282</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="G7" s="3">
         <v>9.9375256834153198</v>
@@ -2041,24 +2038,24 @@
         <v>-84.049373098106301</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="G8" s="3">
         <v>44.774218179385002</v>
@@ -2067,24 +2064,24 @@
         <v>-0.69649112690117299</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="G9" s="3">
         <v>44.774618179385001</v>
@@ -2093,24 +2090,24 @@
         <v>-0.69649112690117299</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="3">
         <v>46.146515000000001</v>
@@ -2119,24 +2116,24 @@
         <v>-1.154782</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" s="3">
         <v>46.142591000000003</v>
@@ -2159,46 +2156,46 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60" style="4" customWidth="1"/>
-    <col min="5" max="5" width="59.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="40.5546875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="4"/>
+    <col min="5" max="5" width="59.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="40.5703125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2209,22 +2206,22 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2235,22 +2232,22 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2261,22 +2258,22 @@
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2287,22 +2284,22 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2313,54 +2310,54 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:H6" xr:uid="{240D3340-9201-4D6C-8A54-3C5CAB7C72B0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2369,83 +2366,79 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEFC990-8FA7-4BFB-983A-A7DA2ADA77BF}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="L5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="25.5546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="173.88671875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="28.109375" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="173.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>2</v>
@@ -2457,25 +2450,22 @@
         <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2483,13 +2473,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F3" s="4">
         <v>2024</v>
@@ -2498,36 +2488,33 @@
         <v>6</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="234" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>2</v>
@@ -2539,36 +2526,33 @@
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="218.4" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>2</v>
@@ -2580,36 +2564,33 @@
         <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="171.6" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>2</v>
@@ -2621,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>2</v>
@@ -2630,16 +2611,13 @@
         <v>2</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2647,10 +2625,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>2</v>
@@ -2668,19 +2646,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="156" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2691,10 +2666,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F8" s="4">
         <v>2025</v>
@@ -2715,13 +2690,10 @@
         <v>22</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="78" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2753,39 +2725,36 @@
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:M8" xr:uid="{9DEFC990-8FA7-4BFB-983A-A7DA2ADA77BF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M9">
+  <autoFilter ref="A1:L8" xr:uid="{9DEFC990-8FA7-4BFB-983A-A7DA2ADA77BF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L9">
       <sortCondition ref="A1:A8"/>
     </sortState>
   </autoFilter>
@@ -2801,59 +2770,59 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="41" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="3"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2870,77 +2839,77 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="39.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>2</v>
@@ -2949,30 +2918,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
@@ -2981,30 +2950,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>2</v>
@@ -3013,36 +2982,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3053,75 +3022,78 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00B3993-477B-4F26-8864-0F3A02D8751F}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="B2" s="5">
         <v>45807</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5">
         <v>45806</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5">
         <v>45809</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3">
         <v>4</v>
       </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbell\Documents\Benjamin\Perso\Site internet\mywebsite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BD1CC1-879E-43C3-B010-A393911950FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592B58F1-E20A-411D-9185-373A6583D175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="research jobs" sheetId="9" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">projects!$A$1:$H$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'publications &amp; communications'!$A$1:$L$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'research jobs'!$A$1:$K$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sport!$A$1:$F$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">summary!$A$1:$H$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'teaching &amp; mentoring'!$A$1:$J$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">volunteer!$A$1:$E$3</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="272">
   <si>
     <t>proj-fuv</t>
   </si>
@@ -798,6 +799,69 @@
   </si>
   <si>
     <t>https://www.cosse-le-vivien.fr/mairie-cosse/tellement-locale/culture/annuaire-des-associations/uc-sud-53</t>
+  </si>
+  <si>
+    <t>Saint-Maixant</t>
+  </si>
+  <si>
+    <t>Luçon</t>
+  </si>
+  <si>
+    <t>Saint-Hilaire-de-Riez</t>
+  </si>
+  <si>
+    <t>Bouillé-Courdault</t>
+  </si>
+  <si>
+    <t>La Boissière des Landes</t>
+  </si>
+  <si>
+    <t>Le Langon</t>
+  </si>
+  <si>
+    <t>Lairoux</t>
+  </si>
+  <si>
+    <t>Mouilleron-le-Captif</t>
+  </si>
+  <si>
+    <t>Sérigné</t>
+  </si>
+  <si>
+    <t>Saint-Gilles-Croix-de-Vie</t>
+  </si>
+  <si>
+    <t>Bazoges-en-Paillers</t>
+  </si>
+  <si>
+    <t>La Mailleraie Tillay</t>
+  </si>
+  <si>
+    <t>Sainte-Hermine</t>
+  </si>
+  <si>
+    <t>Rémouillé</t>
+  </si>
+  <si>
+    <t>Saint-Sauveur d'Aunis</t>
+  </si>
+  <si>
+    <t>UFOLEP</t>
+  </si>
+  <si>
+    <t>FFC</t>
+  </si>
+  <si>
+    <t>Access 1</t>
+  </si>
+  <si>
+    <t>Saint-Savinien</t>
+  </si>
+  <si>
+    <t>Access 1, Access 2</t>
+  </si>
+  <si>
+    <t>Open 3, Access 1, Access 2</t>
   </si>
 </sst>
 </file>
@@ -1173,23 +1237,23 @@
       <selection activeCell="D6" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="49.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1224,7 +1288,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1259,7 +1323,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1294,7 +1358,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1329,7 +1393,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1364,7 +1428,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1418,15 +1482,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="108.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="48.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="3"/>
+    <col min="3" max="3" width="108.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
@@ -1437,7 +1501,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>236</v>
       </c>
@@ -1448,7 +1512,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>236</v>
       </c>
@@ -1459,7 +1523,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>237</v>
       </c>
@@ -1470,7 +1534,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>238</v>
       </c>
@@ -1481,7 +1545,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>238</v>
       </c>
@@ -1492,7 +1556,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>238</v>
       </c>
@@ -1503,7 +1567,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>239</v>
       </c>
@@ -1515,7 +1579,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>239</v>
       </c>
@@ -1526,7 +1590,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>240</v>
       </c>
@@ -1537,7 +1601,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>239</v>
       </c>
@@ -1548,7 +1612,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>241</v>
       </c>
@@ -1559,7 +1623,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>241</v>
       </c>
@@ -1570,7 +1634,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>242</v>
       </c>
@@ -1581,7 +1645,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>242</v>
       </c>
@@ -1592,7 +1656,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>242</v>
       </c>
@@ -1616,12 +1680,12 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1635,18 +1699,18 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
@@ -1666,7 +1730,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1686,7 +1750,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1706,7 +1770,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1726,7 +1790,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1764,17 +1828,17 @@
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1791,7 +1855,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1808,7 +1872,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1843,20 +1907,20 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="72" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
@@ -1882,7 +1946,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
@@ -1908,7 +1972,7 @@
         <v>-0.69837400000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
@@ -1934,7 +1998,7 @@
         <v>-0.698743</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -1960,7 +2024,7 @@
         <v>-0.56464499999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
@@ -1986,7 +2050,7 @@
         <v>-0.60017500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
@@ -2012,7 +2076,7 @@
         <v>-1.158282</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>101</v>
       </c>
@@ -2038,7 +2102,7 @@
         <v>-84.049373098106301</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>77</v>
       </c>
@@ -2064,7 +2128,7 @@
         <v>-0.69649112690117299</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
@@ -2090,7 +2154,7 @@
         <v>-0.69649112690117299</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
@@ -2116,7 +2180,7 @@
         <v>-1.154782</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>77</v>
       </c>
@@ -2156,20 +2220,20 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60" style="4" customWidth="1"/>
-    <col min="5" max="5" width="59.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="40.5703125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="5" max="5" width="59.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="40.5546875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
@@ -2195,7 +2259,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2221,7 +2285,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2247,7 +2311,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2273,7 +2337,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2299,7 +2363,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2325,39 +2389,39 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:H6" xr:uid="{240D3340-9201-4D6C-8A54-3C5CAB7C72B0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2372,24 +2436,24 @@
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="173.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="13.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="173.88671875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="28.109375" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
@@ -2427,7 +2491,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2465,7 +2529,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="189" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2503,7 +2567,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="234" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2541,7 +2605,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2579,7 +2643,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2617,7 +2681,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="126" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2655,7 +2719,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="156" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2693,7 +2757,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2731,27 +2795,27 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="226.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:L8" xr:uid="{9DEFC990-8FA7-4BFB-983A-A7DA2ADA77BF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L9">
@@ -2770,14 +2834,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="41" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
@@ -2785,7 +2849,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2793,7 +2857,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2801,7 +2865,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2809,7 +2873,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -2817,7 +2881,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -2839,22 +2903,22 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="39.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -2886,7 +2950,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2918,7 +2982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2950,7 +3014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2982,7 +3046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3022,21 +3086,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00B3993-477B-4F26-8864-0F3A02D8751F}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -3047,55 +3114,432 @@
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="5">
-        <v>45807</v>
+        <v>45718</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="3">
+        <v>251</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="5">
-        <v>45806</v>
+        <v>45725</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="5">
+        <v>45731</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45732</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45739</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45745</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45753</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45760</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45767</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45774</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45778</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45781</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45785</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45788</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45792</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45802</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45806</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45807</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5">
         <v>45809</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D20" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45817</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45822</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F17" xr:uid="{C00B3993-477B-4F26-8864-0F3A02D8751F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
+      <sortCondition ref="B1:B17"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,33 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbell\Documents\Benjamin\Perso\Site internet\mywebsite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592B58F1-E20A-411D-9185-373A6583D175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F347E240-FA6D-47A5-A585-B5147535B4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="research jobs" sheetId="9" r:id="rId1"/>
-    <sheet name="educational background" sheetId="8" r:id="rId2"/>
-    <sheet name="volunteer" sheetId="11" r:id="rId3"/>
-    <sheet name="summary" sheetId="12" r:id="rId4"/>
-    <sheet name="projects" sheetId="2" r:id="rId5"/>
-    <sheet name="publications &amp; communications" sheetId="4" r:id="rId6"/>
-    <sheet name="icons" sheetId="5" r:id="rId7"/>
-    <sheet name="teaching &amp; mentoring" sheetId="10" r:id="rId8"/>
-    <sheet name="sport" sheetId="7" r:id="rId9"/>
-    <sheet name="sport historic" sheetId="14" r:id="rId10"/>
-    <sheet name="model" sheetId="1" r:id="rId11"/>
+    <sheet name="skills" sheetId="15" r:id="rId1"/>
+    <sheet name="research jobs" sheetId="9" r:id="rId2"/>
+    <sheet name="educational background" sheetId="8" r:id="rId3"/>
+    <sheet name="volunteer" sheetId="11" r:id="rId4"/>
+    <sheet name="summary" sheetId="12" r:id="rId5"/>
+    <sheet name="projects" sheetId="2" r:id="rId6"/>
+    <sheet name="publications &amp; communications" sheetId="4" r:id="rId7"/>
+    <sheet name="icons" sheetId="5" r:id="rId8"/>
+    <sheet name="teaching &amp; mentoring" sheetId="10" r:id="rId9"/>
+    <sheet name="sport" sheetId="7" r:id="rId10"/>
+    <sheet name="sport historic" sheetId="14" r:id="rId11"/>
+    <sheet name="model" sheetId="1" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'educational background'!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">icons!$A$1:$B$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">projects!$A$1:$H$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'publications &amp; communications'!$A$1:$L$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'research jobs'!$A$1:$K$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sport!$A$1:$F$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">summary!$A$1:$H$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'teaching &amp; mentoring'!$A$1:$J$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">volunteer!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'educational background'!$A$1:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">icons!$A$1:$B$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">projects!$A$1:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'publications &amp; communications'!$A$1:$L$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'research jobs'!$A$1:$K$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sport!$A$1:$F$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">summary!$A$1:$H$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'teaching &amp; mentoring'!$A$1:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">volunteer!$A$1:$E$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="317">
   <si>
     <t>proj-fuv</t>
   </si>
@@ -657,9 +658,6 @@
     <t>doi</t>
   </si>
   <si>
-    <t>abtract</t>
-  </si>
-  <si>
     <t>Anthropogenic climate change is one of the greatest threats to biodiversity. It has been one of the main drivers behind the increase in frequency, intensity and duration of marine heatwaves worldwide. These extreme temperature events ”lasting at least 5 days, with temperatures above the 90th percentile based on a 30-year historical reference period”. These marine heatwaves have often been associated with significant changes in abundance and mortality, mainly in algae, corals, molluscs and fishes. The lack of clarity around the term ”marine” (in ”marine heatwaves”) has led to an insufficient number of studies about these events in estuarine environments. A recent study showed that estuaries were warming faster than the open and coastal ocean, and suggested more studies focus on heatwaves in estuaries. In the Gironde estuary, changes in the fish community structure have been observed since the end of the 20th century. Nowadays, the fish species richness and the global abundance of fish in the mesohaline part of the estuary are at historically low levels. To our knowledge, no study in this estuary has investigated the effects of marine heatwaves on this ichthyological community. Therefore, our work proposes to study the effect of marine heatwaves on fish in the Gironde estuary. Firstly, a daily water temperature time series (1993-2023) in the mesohaline part of the Gironde estuary was reconstructed using different modeling methods (linear models, dynamic time warping and imputation). Secondly, this water temperature time series was used to model marine heatwaves, which were characterized according to their occurrence, intensity and duration. Thirdly, we used ichthyological data from monthly fishing campaigns conducted at 12 sites divided into 4 transects in the mesohaline part of the Gironde estuary since 1993 to calculate fish species richness, global and specific abundances of fish at annual, seasonal and monthly scales. Finally, marine heatwaves data have been used to investigate their effects on fish in terms of species richness, abundances, spatial distribution and life cycle, considering the tolerance and affinity of fish species to specific temperature ranges.</t>
   </si>
   <si>
@@ -862,6 +860,144 @@
   </si>
   <si>
     <t>Open 3, Access 1, Access 2</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>ecotoxicology</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>heatwave</t>
+  </si>
+  <si>
+    <t>pollution</t>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
+    <t>estuary</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>catchment</t>
+  </si>
+  <si>
+    <t>early life stages</t>
+  </si>
+  <si>
+    <t>agrochemicals</t>
+  </si>
+  <si>
+    <t>metals</t>
+  </si>
+  <si>
+    <t>bioassays</t>
+  </si>
+  <si>
+    <t>bacteria</t>
+  </si>
+  <si>
+    <t>bioluminscence</t>
+  </si>
+  <si>
+    <t>tools</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>gironde</t>
+  </si>
+  <si>
+    <t>garonne</t>
+  </si>
+  <si>
+    <t>dordogne</t>
+  </si>
+  <si>
+    <t>windfarm</t>
+  </si>
+  <si>
+    <t>human activities</t>
+  </si>
+  <si>
+    <t>QGIS</t>
+  </si>
+  <si>
+    <t>word_biological_models</t>
+  </si>
+  <si>
+    <t>word_zone</t>
+  </si>
+  <si>
+    <t>word_pressures</t>
+  </si>
+  <si>
+    <t>word_methods</t>
+  </si>
+  <si>
+    <t>DMP</t>
+  </si>
+  <si>
+    <t>PAF</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>personal and care</t>
+  </si>
+  <si>
+    <t>anthropocene</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>allis shad</t>
+  </si>
+  <si>
+    <t>sturgeon</t>
+  </si>
+  <si>
+    <t>sole</t>
+  </si>
+  <si>
+    <t>seabass</t>
+  </si>
+  <si>
+    <t>pressures</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>RStudio</t>
+  </si>
+  <si>
+    <t>GLM</t>
+  </si>
+  <si>
+    <t>LMM</t>
   </si>
 </sst>
 </file>
@@ -1230,6 +1366,868 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C357F0C8-8AA6-4A74-8A9A-71BC62ECAE0B}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" style="3" customWidth="1"/>
+    <col min="2" max="4" width="38.5546875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00B3993-477B-4F26-8864-0F3A02D8751F}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45718</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45725</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45731</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45732</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45739</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45745</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45753</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45760</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45767</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45774</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45778</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45781</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45785</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45788</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45792</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45802</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45806</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45807</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45809</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45817</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45822</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F17" xr:uid="{C00B3993-477B-4F26-8864-0F3A02D8751F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
+      <sortCondition ref="B1:B17"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D94C5C4-0F1A-491C-AF3B-BA2C570A396D}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="3"/>
+    <col min="3" max="3" width="108.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2024</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF18EF9-4AE0-47EB-BD63-2AA3FA3DA0A9}">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -1299,7 +2297,7 @@
         <v>118</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>120</v>
@@ -1311,10 +2309,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>2</v>
@@ -1334,7 +2332,7 @@
         <v>118</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>120</v>
@@ -1369,7 +2367,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>121</v>
@@ -1404,7 +2402,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>119</v>
@@ -1439,7 +2437,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>119</v>
@@ -1474,224 +2472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D94C5C4-0F1A-491C-AF3B-BA2C570A396D}">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="48.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="3"/>
-    <col min="3" max="3" width="108.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2024</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2023</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2022</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2021</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2019</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2017</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2016</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2015</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2014</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2013</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2012</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2011</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0BE93B-B5C5-42BC-97B4-58B1AF8352C6}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1761,7 +2542,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>62</v>
@@ -1781,7 +2562,7 @@
         <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>59</v>
@@ -1801,7 +2582,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>56</v>
@@ -1820,7 +2601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC8E93-54FA-4AC0-806B-C45D30CC8B78}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1863,7 +2644,7 @@
         <v>134</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>76</v>
@@ -1880,7 +2661,7 @@
         <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>75</v>
@@ -1899,7 +2680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81BC6C-994D-4F79-B375-9514347D9AD4}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -2212,7 +2993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240D3340-9201-4D6C-8A54-3C5CAB7C72B0}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -2428,12 +3209,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEFC990-8FA7-4BFB-983A-A7DA2ADA77BF}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2467,7 +3248,7 @@
         <v>197</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>198</v>
@@ -2485,7 +3266,7 @@
         <v>202</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>127</v>
@@ -2543,7 +3324,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F3" s="4">
         <v>2024</v>
@@ -2599,7 +3380,7 @@
         <v>41</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>141</v>
@@ -2637,7 +3418,7 @@
         <v>36</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>141</v>
@@ -2651,10 +3432,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>2</v>
@@ -2666,7 +3447,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>2</v>
@@ -2675,7 +3456,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>141</v>
@@ -2730,10 +3511,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F8" s="4">
         <v>2025</v>
@@ -2826,7 +3607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8835AB5-8E27-4D6B-8585-D91686FB6E9F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2846,7 +3627,7 @@
         <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2895,7 +3676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB60AEB1-858A-4C57-B06C-2D382B341FE2}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -2935,16 +3716,16 @@
         <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>197</v>
@@ -2964,13 +3745,13 @@
         <v>55</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>157</v>
@@ -2996,13 +3777,13 @@
         <v>55</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>157</v>
@@ -3028,13 +3809,13 @@
         <v>55</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>157</v>
@@ -3066,480 +3847,20 @@
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>137</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J5" xr:uid="{EB60AEB1-858A-4C57-B06C-2D382B341FE2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00B3993-477B-4F26-8864-0F3A02D8751F}">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45718</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45725</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F3" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="5">
-        <v>45731</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="5">
-        <v>45732</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="5">
-        <v>45739</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45745</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="5">
-        <v>45753</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="5">
-        <v>45760</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="5">
-        <v>45767</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="5">
-        <v>45774</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="5">
-        <v>45778</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="5">
-        <v>45781</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="5">
-        <v>45785</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="5">
-        <v>45788</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="5">
-        <v>45792</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="5">
-        <v>45802</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="5">
-        <v>45806</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F18" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="5">
-        <v>45807</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="5">
-        <v>45809</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="5">
-        <v>45817</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="5">
-        <v>45822</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F17" xr:uid="{C00B3993-477B-4F26-8864-0F3A02D8751F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
-      <sortCondition ref="B1:B17"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbell\Documents\Benjamin\Perso\Site internet\mywebsite\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbell\Desktop\website\mywebsite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F347E240-FA6D-47A5-A585-B5147535B4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEA27EB-7B4F-4416-B045-50B778F961F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="skills" sheetId="15" r:id="rId1"/>
@@ -22,9 +22,7 @@
     <sheet name="publications &amp; communications" sheetId="4" r:id="rId7"/>
     <sheet name="icons" sheetId="5" r:id="rId8"/>
     <sheet name="teaching &amp; mentoring" sheetId="10" r:id="rId9"/>
-    <sheet name="sport" sheetId="7" r:id="rId10"/>
-    <sheet name="sport historic" sheetId="14" r:id="rId11"/>
-    <sheet name="model" sheetId="1" r:id="rId12"/>
+    <sheet name="model" sheetId="1" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'educational background'!$A$1:$F$5</definedName>
@@ -32,7 +30,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">projects!$A$1:$H$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'publications &amp; communications'!$A$1:$L$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'research jobs'!$A$1:$K$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sport!$A$1:$F$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">summary!$A$1:$H$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'teaching &amp; mentoring'!$A$1:$J$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">volunteer!$A$1:$E$3</definedName>
@@ -47,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="295">
   <si>
     <t>proj-fuv</t>
   </si>
@@ -187,30 +184,9 @@
     <t>The allis shad (Alosa alosa) is a diadromous migratory fish that breeds in rivers. A decline in this species, on a European scale and in the GGD catchment (historically the largest population), has been observed since the late 1990’s. Several theories explaining this decline have been investigated, including the recent hypothesis of a link between embryo mortality and water contamination. However, information on water quality in allis shad spawning grounds is limited. Thus, using the SIEAG database, this study first categorized the contaminants present (quantified or detected) in these spawning grounds. However, only the presence of contaminants does not provide information on toxicity. For this reason, we used the PAF (Potentially Affected Fraction) method, which is an indicator of potential toxicity that compares environmental concentrations (here, annual averages) with toxicity values. These toxicity values were extracted from the ECOTOX Knowledgebase. The PAF method was applied to the fish taxon and its various life stages. Using quantified environmental data, the Garonne spawning grounds presented a potential toxic risk associated with the fish taxon over the entire study period (msPAFF-T &gt; 5%), unlike the Dordogne spawning grounds (msPAFF-T &lt; 5%). The larval stage was the most at-risk life stage in terms of development and physiology (msPAFSE-T &gt; 5%), and embryonic stage for mortality effect (msPAFSE-T &gt; 1%) using quantified environmental data. Embryos appeared to be lethally more sensitive to metals, and larvae to industrial pollutants. Finally, a number of substances contributed particularly to the toxic risk (PAFi &gt; 5%): metals (zinc, lead, copper and calcium), phenols, agrochemicals (simazine and cypermethrin) and drugs (metformin and carbamazepine). This method has made it possible to fill a data gap on contamination of allis shad spawning grounds in the GGD catchment, and to show that allis shad and other diadromous fish could face a potentially significant toxic risk.</t>
   </si>
   <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
-    <t>ranking</t>
-  </si>
-  <si>
-    <t>Cyclism</t>
-  </si>
-  <si>
-    <t>Fontenay-le-Comte</t>
-  </si>
-  <si>
-    <t>Le Voide</t>
-  </si>
-  <si>
-    <t>Venansault</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -685,9 +661,6 @@
     <t>students</t>
   </si>
   <si>
-    <t>oct. 2024 to nov. 2025</t>
-  </si>
-  <si>
     <t>Oct. 2024 to Nov. 2025</t>
   </si>
   <si>
@@ -751,117 +724,9 @@
     <t>pub_list/Bellieretal2024-STOTEN_preprint.pdf</t>
   </si>
   <si>
-    <t>club</t>
-  </si>
-  <si>
-    <t>VC Luçonnais</t>
-  </si>
-  <si>
-    <t>Amicale Cycliste d'Andilly et Serigny</t>
-  </si>
-  <si>
-    <t>VC Lucéen</t>
-  </si>
-  <si>
-    <t>Angers Cyclisme</t>
-  </si>
-  <si>
-    <t>UC Nantes Atlantique</t>
-  </si>
-  <si>
-    <t>VC Château Gontier</t>
-  </si>
-  <si>
-    <t>Union Cycliste SUD 53</t>
-  </si>
-  <si>
     <t>https://www.veloceclub-lucon.fr/</t>
   </si>
   <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>https://www.andillylesmarais.fr/acas/</t>
-  </si>
-  <si>
-    <t>https://veloclubluceen.clubeo.com/</t>
-  </si>
-  <si>
-    <t>https://www.angersmetropolecyclisme49.fr/</t>
-  </si>
-  <si>
-    <t>https://www.ucna.fr/</t>
-  </si>
-  <si>
-    <t>https://veloce-club-chateau-gontier.jimdofree.com/</t>
-  </si>
-  <si>
-    <t>https://www.cosse-le-vivien.fr/mairie-cosse/tellement-locale/culture/annuaire-des-associations/uc-sud-53</t>
-  </si>
-  <si>
-    <t>Saint-Maixant</t>
-  </si>
-  <si>
-    <t>Luçon</t>
-  </si>
-  <si>
-    <t>Saint-Hilaire-de-Riez</t>
-  </si>
-  <si>
-    <t>Bouillé-Courdault</t>
-  </si>
-  <si>
-    <t>La Boissière des Landes</t>
-  </si>
-  <si>
-    <t>Le Langon</t>
-  </si>
-  <si>
-    <t>Lairoux</t>
-  </si>
-  <si>
-    <t>Mouilleron-le-Captif</t>
-  </si>
-  <si>
-    <t>Sérigné</t>
-  </si>
-  <si>
-    <t>Saint-Gilles-Croix-de-Vie</t>
-  </si>
-  <si>
-    <t>Bazoges-en-Paillers</t>
-  </si>
-  <si>
-    <t>La Mailleraie Tillay</t>
-  </si>
-  <si>
-    <t>Sainte-Hermine</t>
-  </si>
-  <si>
-    <t>Rémouillé</t>
-  </si>
-  <si>
-    <t>Saint-Sauveur d'Aunis</t>
-  </si>
-  <si>
-    <t>UFOLEP</t>
-  </si>
-  <si>
-    <t>FFC</t>
-  </si>
-  <si>
-    <t>Access 1</t>
-  </si>
-  <si>
-    <t>Saint-Savinien</t>
-  </si>
-  <si>
-    <t>Access 1, Access 2</t>
-  </si>
-  <si>
-    <t>Open 3, Access 1, Access 2</t>
-  </si>
-  <si>
     <t>abstract</t>
   </si>
   <si>
@@ -998,13 +863,79 @@
   </si>
   <si>
     <t>LMM</t>
+  </si>
+  <si>
+    <t>Insights of a revised dose-response methodology to investigate behavioural responses of juvenile seabass exposed to offshore wind turbine noise</t>
+  </si>
+  <si>
+    <t>Anthropogenic noise has become a widespread pollutant in the world's oceans, having an impact on the biology and ecology of various marine species. However, due to the challenges of reproducing realistic conditions in experimental setups, behavioural effects of continuous anthropogenic noise remain poorly studied. The aim of this study was to develop a laboratory-based experimental protocol to evaluate the behavioural responses of juvenile European seabass (Dicentrarchus labrax) to representative and realistic playback of offshore wind turbine noise. The acoustic exposure simulated the gradual approach of fish swimming toward an operating turbine, using field recordings collected in situ sea conditions. Acoustic calibrations were conducted prior to testing to ensure the spectral and spatial realism of the sound within the experimental environment.</t>
+  </si>
+  <si>
+    <t>Investigating the onset of behavioural effects in juvenile seabass exposed to offshore wind turbine noise using a revisited dose-response methodology</t>
+  </si>
+  <si>
+    <t>pub_list/Millotetal_2025-ENAL_IV_poster.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.16979138</t>
+  </si>
+  <si>
+    <t>The Effects of Noise on Aquatic Life IV, Prague, Tchéquie</t>
+  </si>
+  <si>
+    <t>This study aims to assess the intensity of an offshore wind turbine noise that elicits behavioural responses in juvenile European seabass (Dicentrarchus labrax). Based on a dose-response approach, considered to be overlooked in aquatic noise impact studies (Popper and Hawkins 2019), fish are exposed to a gradual increase in noise intensity. This experimental design is intended to simulate the natural movement of fish from an area outside the turbine noise influence (approximately 4 km) to the base of the wind turbine. In the first set of experiments, noise intensity is increased linearly, while in a second set, a step increase is employed with a succession of increase and 30 min of steady intensity. The experimental setup consists of an 11,000-L cylindrical pool (supplied by an open seawater circuit) equipped with an underwater loudspeaker, a hydrophone, cameras, and three experimental arenas (Ø 80 cm, water level: 20 cm). Several groups of five fish are successively placed on the arenas, with each fish being tested only once. Behavioural patterns of each fish are established with AnimalTA tracking software, allowing to assess different variables such as swimming activity, burst events or immobility. The phenomenon of habituation is also taken into account by comparing the responses observed when the intensity is increased linearly and in steps. This study used an exploratory protocol that is expected to evolve. We believe it offers a new way of quantifying the effects of anthropogenic noise and provides valuable insights to consider for further experiments in this research area.</t>
+  </si>
+  <si>
+    <t>Filtres UV, des contaminants émergents sous-estimés ? Impacts sur la croissance, le comportement et la survie de la seiche commune (Sepia officinalis)</t>
+  </si>
+  <si>
+    <t>Behavioural responses of juvenile European seabass exposed to a functioning wind turbine noise</t>
+  </si>
+  <si>
+    <t>The expansion of European marine renewable energy projects is increasing noise ocean emissions, significantly altering marine soundscapes. To assess the effects of these disturbances on marine fauna, research has primarily focused on determining sound thresholds causing physiological damage. However, more indirect effects, such as those on behaviour, have been largely overlooked. A more holistic approach is essential to better inform preservation and conservation strategies, and to apply appropriate protective measures to prevent, reduce, or compensate expected effects. In this study, we aimed to improve our knowledge on potential effects of these emerging noise emissions on ichthyofauna. Specifically, we investigated the behavioural responses – first-line defences to adverse environmental change – of juvenile European seabass (Dicentrarchus labrax ) exposed to different wind turbine noise intensities. Our experimental design includes two complementary setups. In the first experiment, fish were exposed to a gradual increase in noise intensity, simulating their natural movement from an area outside the turbine noise influence to the turbine base. For the second experimental set, fish were exposed to the same range of intensities using a stepwise protocol to assess a potential short-term habituation phenomenon. Both experiments are conducted in an 11,000-L cylindrical pool equipped with an underwater loudspeaker, a hydrophone, cameras, and three experimental arenas (Ø80cm, water level: 20cm). Fish were tested in groups of four, with each fish being used only once. Behavioural patterns such as fish immobility and burst events were identified through video analysis using BORIS software. Initial results suggest no marked changes in behaviour over the tested sound intensity range. Through further analysis, we will assess various parameters of swimming activity, such as cumulative distance and swimming speed for each individual, using WINanalyze, a semi-automatic tracking software. We expect that, as noise intensity increases linearly, fish will exhibit more frequent episodes of irregular swimming patterns.</t>
+  </si>
+  <si>
+    <t>Les crèmes solaires sont des mélanges chimiques complexes, composés d’une matrice structurelle et de filtres UV organiques et/ou minéraux permettant de se protéger des rayons UV. Leur usage massif en période estivale entraîne une contamination notable des zones côtières. Lors des journées à forte affluence humaine, plusieurs kilogrammes de filtres UV peuvent y être relargués, soulevant des préoccupations quant à leurs effets potentiels sur les écosystèmes marins. Cependant la majorité des études ne tient pas compte de la matrice structurelle, porte sur des concentrations souvent au-delà des concentrations environnementales, et concerne uniquement les effets des filtres UV isolés, s’affranchissant ainsi des effets "cocktail". Cette étude propose donc d’évaluer les effets des composés chimiques contenus dans les crèmes solaires sur des juvéniles de seiche commune (Sepia officinalis), une espèce d’intérêt écologique et économique, se développant sur nos littoraux durant la période estivale. Les individus ont été soumis à de l’eau contenant différentes combinaisons de ces contaminants (à des concentrations environnementalement pertinentes), et correspondant à cinq conditions d’exposition distinctes : un contrôle (sans exposition), une matrice seule (MATR), une matrice avec filtres UV minéraux (FUVm), une matrice avec filtres UV organiques (FUVo) et une matrice avec filtres UV minéraux et organiques (COMP). Quatre indicateurs ont été mesurés : survie, croissance, camouflage et latéralisation.  Une diminution significative de la survie a été observée pour les seiches juvéniles exposées à la condition COMP, empêchant l’interprétation des autres indicateurs pour cette condition. La capacité de camouflage a été significativement altérée chez les individus exposés aux conditions MATR et FUVo. Aucun effet n’a été détecté sur la croissance ni la latéralisation indépendamment des conditions d’exposition. Ces résultats soulignent la nécessité d’évaluer les effets des crèmes solaires, en tenant compte des mélanges de filtres UV et de la matrice, afin de mieux caractériser les risques environnementaux associés.</t>
+  </si>
+  <si>
+    <t>Colloque d'Écophysiologie Animale 7 (CEPA), Brest, France</t>
+  </si>
+  <si>
+    <t>Véloce Club Luçonnais</t>
+  </si>
+  <si>
+    <t>multimedia/vcl.ico</t>
+  </si>
+  <si>
+    <t>oct. 2024 to oct. 2025</t>
+  </si>
+  <si>
+    <t>nov. 2025 to nov. 2026</t>
+  </si>
+  <si>
+    <t>XXX project</t>
+  </si>
+  <si>
+    <t>proj-xxx</t>
+  </si>
+  <si>
+    <t>VILLENEUVE Bertrand, ACOLAS Marie-Laure</t>
+  </si>
+  <si>
+    <t>0000-0001-7485-9262, 0000-0003-1181-2605</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>Effects of dredged sediment immersion on fish in the Gironde estuary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,8 +954,19 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,6 +982,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1081,11 +1029,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,167 +1333,167 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1551,664 +1502,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00B3993-477B-4F26-8864-0F3A02D8751F}">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45718</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45725</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="5">
-        <v>45731</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="5">
-        <v>45732</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="5">
-        <v>45739</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45745</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="5">
-        <v>45753</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="5">
-        <v>45760</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="5">
-        <v>45767</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="5">
-        <v>45774</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="5">
-        <v>45778</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="5">
-        <v>45781</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="5">
-        <v>45785</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="5">
-        <v>45788</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="5">
-        <v>45792</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="5">
-        <v>45802</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="5">
-        <v>45806</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F18" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="5">
-        <v>45807</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="5">
-        <v>45809</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="5">
-        <v>45817</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="5">
-        <v>45822</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F17" xr:uid="{C00B3993-477B-4F26-8864-0F3A02D8751F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
-      <sortCondition ref="B1:B17"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D94C5C4-0F1A-491C-AF3B-BA2C570A396D}">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="48.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="3"/>
-    <col min="3" max="3" width="108.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2024</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2023</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2022</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2021</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2019</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2017</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2016</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2015</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2014</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2013</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2012</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2011</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2229,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF18EF9-4AE0-47EB-BD63-2AA3FA3DA0A9}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D2:D6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2244,8 +1537,8 @@
     <col min="5" max="5" width="49.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.109375" style="3"/>
@@ -2253,37 +1546,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2291,34 +1584,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2326,34 +1619,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2361,34 +1654,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2396,34 +1689,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2431,34 +1724,69 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2493,22 +1821,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2516,19 +1844,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4">
         <v>2018</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2536,19 +1864,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2556,19 +1884,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2576,19 +1904,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2603,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC8E93-54FA-4AC0-806B-C45D30CC8B78}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2621,19 +1949,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2641,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2658,21 +1986,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>162</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E3" xr:uid="{B0FC8E93-54FA-4AC0-806B-C45D30CC8B78}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E3">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E4">
       <sortCondition ref="A1:A3"/>
     </sortState>
   </autoFilter>
@@ -2703,48 +2048,48 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G2" s="3">
         <v>47.835979999999999</v>
@@ -2755,22 +2100,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="G3" s="3">
         <v>47.828046999999998</v>
@@ -2781,22 +2126,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G4" s="3">
         <v>48.748590999999998</v>
@@ -2807,22 +2152,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G5" s="3">
         <v>47.480553999999998</v>
@@ -2833,22 +2178,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G6" s="3">
         <v>46.146113999999997</v>
@@ -2859,22 +2204,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G7" s="3">
         <v>9.9375256834153198</v>
@@ -2885,22 +2230,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G8" s="3">
         <v>44.774218179385002</v>
@@ -2911,22 +2256,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="G9" s="3">
         <v>44.774618179385001</v>
@@ -2937,22 +2282,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G10" s="3">
         <v>46.146515000000001</v>
@@ -2963,22 +2308,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G11" s="3">
         <v>46.142591000000003</v>
@@ -2998,7 +2343,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3016,28 +2361,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3051,19 +2396,19 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3077,19 +2422,19 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3103,19 +2448,19 @@
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3129,19 +2474,19 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3155,22 +2500,47 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="8" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3211,10 +2581,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEFC990-8FA7-4BFB-983A-A7DA2ADA77BF}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3234,45 +2604,45 @@
     <col min="13" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3280,7 +2650,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>43</v>
@@ -3301,16 +2671,16 @@
         <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3324,7 +2694,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F3" s="4">
         <v>2024</v>
@@ -3341,14 +2711,14 @@
       <c r="J3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="234" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3379,14 +2749,14 @@
       <c r="J4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>204</v>
+      <c r="K4" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="218.4" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3417,14 +2787,14 @@
       <c r="J5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>203</v>
+      <c r="K5" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="171.6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3432,10 +2802,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>2</v>
@@ -3447,7 +2817,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>2</v>
@@ -3455,14 +2825,14 @@
       <c r="J6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>206</v>
+      <c r="K6" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3493,14 +2863,14 @@
       <c r="J7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="156" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3511,10 +2881,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F8" s="4">
         <v>2025</v>
@@ -3531,14 +2901,14 @@
       <c r="J8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="78" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3569,20 +2939,171 @@
       <c r="J9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:12" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="226.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2025</v>
+      </c>
+      <c r="G10" s="4">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="226.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2025</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="226.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2025</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="226.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2025</v>
+      </c>
+      <c r="G13" s="4">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" ht="226.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:17" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3599,11 +3120,12 @@
     <row r="30" ht="226.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:L8" xr:uid="{9DEFC990-8FA7-4BFB-983A-A7DA2ADA77BF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L9">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L11">
       <sortCondition ref="A1:A8"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3624,10 +3146,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3635,7 +3157,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3643,7 +3165,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3651,7 +3173,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3659,7 +3181,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3667,7 +3189,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3701,34 +3223,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3736,25 +3258,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>2</v>
@@ -3768,25 +3290,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
@@ -3800,25 +3322,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>2</v>
@@ -3832,31 +3354,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbell\Desktop\website\mywebsite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEA27EB-7B4F-4416-B045-50B778F961F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491BB431-14F4-4B00-8D12-F10B93BA3E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="skills" sheetId="15" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="310">
   <si>
     <t>proj-fuv</t>
   </si>
@@ -562,24 +562,12 @@
     <t>Impact of marine heatwaves on fish community in the Gironde estuary</t>
   </si>
   <si>
-    <t>Ex-situ experimentation to assess and understand the response of young fish stages to environmental conditions</t>
-  </si>
-  <si>
-    <t>Modeling of potential toxic risk (PAF method) and field/laboratory as part of Sarah Bancel's thesis</t>
-  </si>
-  <si>
-    <t>Modeling potential climate change risk</t>
-  </si>
-  <si>
     <t>Fish, Contamination, Early Life Stages, Water Quality, Ecotoxicology</t>
   </si>
   <si>
     <t>Detection &amp; effects of tyre and road wear particles in aquatic environments</t>
   </si>
   <si>
-    <t>Development of a data analysis tool about a bioassay</t>
-  </si>
-  <si>
     <t>Microplastics, Rubber, Ecotoxicology, Environment</t>
   </si>
   <si>
@@ -589,9 +577,6 @@
     <t>Anthropogenic Noise, Fish Ecophysiology, Experimental Biology</t>
   </si>
   <si>
-    <t>In progress…</t>
-  </si>
-  <si>
     <t>Coastal UV-filters contamination : growth, behavior and survival effects on common cuttlefish</t>
   </si>
   <si>
@@ -775,9 +760,6 @@
     <t>bacteria</t>
   </si>
   <si>
-    <t>bioluminscence</t>
-  </si>
-  <si>
     <t>tools</t>
   </si>
   <si>
@@ -913,22 +895,85 @@
     <t>nov. 2025 to nov. 2026</t>
   </si>
   <si>
-    <t>XXX project</t>
-  </si>
-  <si>
-    <t>proj-xxx</t>
-  </si>
-  <si>
     <t>VILLENEUVE Bertrand, ACOLAS Marie-Laure</t>
   </si>
   <si>
     <t>0000-0001-7485-9262, 0000-0003-1181-2605</t>
   </si>
   <si>
-    <t>XXX</t>
-  </si>
-  <si>
     <t>Effects of dredged sediment immersion on fish in the Gironde estuary</t>
+  </si>
+  <si>
+    <t>LateX</t>
+  </si>
+  <si>
+    <t>Markdown</t>
+  </si>
+  <si>
+    <t>Quarto</t>
+  </si>
+  <si>
+    <t>bioluminescence</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>Shiny</t>
+  </si>
+  <si>
+    <t>Immerge project</t>
+  </si>
+  <si>
+    <t>proj-imm</t>
+  </si>
+  <si>
+    <t>Sep. 2024</t>
+  </si>
+  <si>
+    <t>Oct. 2024</t>
+  </si>
+  <si>
+    <t>Oct. 2025</t>
+  </si>
+  <si>
+    <t>Nov. 2025</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>IMMERGE</t>
+  </si>
+  <si>
+    <t>Dredged Sediments, Disposal, Fish, Gironde Estuary</t>
+  </si>
+  <si>
+    <t>pub_list/Bellieretal_2025-CEPA_poster,pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.13140/RG.2.2.14008.81923</t>
+  </si>
+  <si>
+    <t>Chemical risk assessment in the Garonne catchment on fish species using the PAF method (allis shad and European sturgeon) and ex-situ exposures (allis shad and Japanese medaka)</t>
+  </si>
+  <si>
+    <t>Development and deployment of an R package in Shiny format to facilitate the data analysis of bacterial bioluminescence toxicity tests</t>
+  </si>
+  <si>
+    <t>Ex-situ experimentation to assess and understand the response of early fish stages to environmental conditions</t>
+  </si>
+  <si>
+    <t>Assessment of the effects of dredged sediment disposal on the fish community in the Gironde estuary using modeling methods (e.g. GLM)</t>
+  </si>
+  <si>
+    <t>Assessment of the effects of UV filters used in sunscreen on common cuttlefish through ecophysiology tests (e.g. behavioral and survival tests)</t>
+  </si>
+  <si>
+    <t>Assessment of the acoustic effects of offshore wind farms on European seabass and common sole using field and laboratory ecophysiology methods (e.g. RFID telemetry and behavioral tests)</t>
+  </si>
+  <si>
+    <t>Assessment of the effects of heatwaves in the Gironde estuary on the fish community using modeling methods (e.g. GLM)</t>
   </si>
 </sst>
 </file>
@@ -1318,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C357F0C8-8AA6-4A74-8A9A-71BC62ECAE0B}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1333,167 +1378,184 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>288</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1524,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF18EF9-4AE0-47EB-BD63-2AA3FA3DA0A9}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1590,7 +1652,7 @@
         <v>111</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>113</v>
@@ -1602,10 +1664,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>2</v>
@@ -1625,7 +1687,7 @@
         <v>111</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>113</v>
@@ -1660,7 +1722,7 @@
         <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>114</v>
@@ -1695,7 +1757,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>112</v>
@@ -1730,7 +1792,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>112</v>
@@ -1765,22 +1827,22 @@
         <v>111</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>2</v>
@@ -1870,7 +1932,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>55</v>
@@ -1890,7 +1952,7 @@
         <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>52</v>
@@ -1910,7 +1972,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>49</v>
@@ -1972,7 +2034,7 @@
         <v>127</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>69</v>
@@ -1986,16 +2048,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2006,7 +2068,7 @@
         <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>68</v>
@@ -2027,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81BC6C-994D-4F79-B375-9514347D9AD4}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2291,10 +2353,10 @@
         <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>294</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>92</v>
+        <v>294</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>108</v>
@@ -2317,10 +2379,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>295</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>92</v>
+        <v>296</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>109</v>
@@ -2330,11 +2392,38 @@
       </c>
       <c r="H11" s="3">
         <v>-1.1574279999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44.774618179385001</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-0.69649112690117299</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H11" xr:uid="{9C81BC6C-994D-4F79-B375-9514347D9AD4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2342,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240D3340-9201-4D6C-8A54-3C5CAB7C72B0}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2370,16 +2459,16 @@
         <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>120</v>
@@ -2396,16 +2485,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>172</v>
+        <v>305</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>165</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>132</v>
@@ -2425,7 +2514,7 @@
         <v>171</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>174</v>
+        <v>309</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>166</v>
@@ -2448,16 +2537,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>131</v>
@@ -2474,16 +2563,16 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>181</v>
+        <v>308</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>168</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>130</v>
@@ -2500,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>181</v>
+        <v>307</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>169</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>130</v>
@@ -2520,22 +2609,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>166</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>132</v>
@@ -2583,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEFC990-8FA7-4BFB-983A-A7DA2ADA77BF}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A12" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2609,34 +2698,34 @@
         <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>120</v>
@@ -2694,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F3" s="4">
         <v>2024</v>
@@ -2750,7 +2839,7 @@
         <v>41</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>134</v>
@@ -2788,7 +2877,7 @@
         <v>36</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>134</v>
@@ -2802,10 +2891,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>2</v>
@@ -2817,7 +2906,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>2</v>
@@ -2826,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>134</v>
@@ -2881,10 +2970,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F8" s="4">
         <v>2025</v>
@@ -2954,10 +3043,10 @@
         <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>2</v>
@@ -2969,16 +3058,16 @@
         <v>6</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>134</v>
@@ -2992,7 +3081,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>2</v>
@@ -3007,7 +3096,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>2</v>
@@ -3016,7 +3105,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>134</v>
@@ -3030,12 +3119,12 @@
         <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="4">
@@ -3045,16 +3134,16 @@
         <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>2</v>
+        <v>278</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>134</v>
@@ -3068,7 +3157,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>2</v>
@@ -3083,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>2</v>
@@ -3092,7 +3181,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>134</v>
@@ -3146,10 +3235,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3202,7 +3291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB60AEB1-858A-4C57-B06C-2D382B341FE2}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -3238,19 +3327,19 @@
         <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3267,13 +3356,13 @@
         <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>150</v>
@@ -3299,13 +3388,13 @@
         <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>150</v>
@@ -3331,13 +3420,13 @@
         <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>150</v>
@@ -3369,16 +3458,16 @@
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>130</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
